--- a/mbs-perturbation/nano/knn/nano-knn-results.xlsx
+++ b/mbs-perturbation/nano/knn/nano-knn-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9090909090909091</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6451612903225806</v>
+        <v>0.5714285714285715</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9635514018691589</v>
+        <v>0.8650700934579438</v>
       </c>
     </row>
     <row r="3">
@@ -489,13 +489,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3809523809523809</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5517241379310345</v>
+        <v>0.25</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9381846635367762</v>
+        <v>0.8498770400178851</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5517241379310345</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8333333333333333</v>
+        <v>0.6530612244897959</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9636150234741784</v>
+        <v>0.9435446009389671</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3157894736842105</v>
+        <v>0.2068965517241379</v>
       </c>
       <c r="C5" t="n">
         <v>0.3</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3076923076923077</v>
+        <v>0.2448979591836735</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5437793427230048</v>
+        <v>0.5171361502347418</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.3</v>
       </c>
       <c r="C6" t="n">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3846153846153846</v>
+        <v>0.2</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6417840375586854</v>
+        <v>0.7442488262910798</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7544998860788336</v>
+        <v>0.6117241379310345</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4861904761904762</v>
+        <v>0.3585714285714286</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5445052907789282</v>
+        <v>0.3838775510204082</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8101828938323606</v>
+        <v>0.7839753421881236</v>
       </c>
     </row>
   </sheetData>

--- a/mbs-perturbation/nano/knn/nano-knn-results.xlsx
+++ b/mbs-perturbation/nano/knn/nano-knn-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5714285714285715</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8650700934579438</v>
+        <v>0.4447911014650027</v>
       </c>
     </row>
     <row r="3">
@@ -489,13 +489,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="D3" t="n">
-        <v>0.25</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8498770400178851</v>
+        <v>0.7924579489962019</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5517241379310345</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6530612244897959</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9435446009389671</v>
+        <v>0.7247995418098512</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2068965517241379</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2448979591836735</v>
+        <v>0.7804878048780488</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5171361502347418</v>
+        <v>0.9656394873193346</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.3</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="C6" t="n">
-        <v>0.15</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7442488262910798</v>
+        <v>0.7499318243796019</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6117241379310345</v>
+        <v>0.6565656565656565</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3585714285714286</v>
+        <v>0.3485380116959064</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3838775510204082</v>
+        <v>0.4161708210488698</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7839753421881236</v>
+        <v>0.7355239807939984</v>
       </c>
     </row>
   </sheetData>
